--- a/文档/单位体系.xlsx
+++ b/文档/单位体系.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51D193B-DA65-4254-B42B-15CCE89DBFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B571A4-5151-4B73-B38B-DE516EEBB8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="3135" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="167">
   <si>
     <t>civ1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,6 +459,311 @@
     <t>隐身战斗机
 隐身轰炸机
 洲际导弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>civ4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇士
+斧兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉锤兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长弓手
+弩手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掷弹兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反坦克兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重机枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地对空导弹兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机动地对空导弹车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海军陆战队
+伞兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑射手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直升机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桨帆船
+三列桨战船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡拉维尔帆船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大帆船（Galleon）
+私掠舰
+护卫舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风帆战舰
+铁甲舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱逐舰
+战列舰
+航空母舰
+潜艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商船</t>
+  </si>
+  <si>
+    <t>攻击潜艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹巡洋舰
+隐身驱逐舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷气式战斗机
+隐身轰炸机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮
+火炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机动火炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人
+移民
+工船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（被地对空导弹兵取代）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸甲骑兵
+（被近代骑兵取代）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克（装甲单位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>civ5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合弓手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战车射手</t>
+  </si>
+  <si>
+    <t>弩手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长剑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三桅军舰</t>
+  </si>
+  <si>
+    <t>卡拉维尔帆船
+私掠舰
+护卫舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加特林机枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪骑兵（本身也是一种骑兵）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（马克沁）机枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一战步兵
+步兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆上战船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一战轰炸机
+三翼机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭筒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机动地对空导弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反坦克炮
+武装直升机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰炸机
+战斗机
+原子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械化步兵
+XCOM小队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹巡洋舰
+核潜艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现代装甲车
+末日机甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身轰炸机
+喷气式战斗机
+导弹
+核导弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹
+战术核弹
+洲际导弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（科学理论后被淘汰）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法进行近战攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最标准的步兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击骑兵50（坦克100）加成
+直升机无视地形也无地形防御加成，无法攻占城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击城市200加成
+视野有限
+无法近战
+无地形防御加成
+火炮后三格射程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战列舰：攻击城市30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击后可移动
+无地形防御加成
+攻击城市33惩罚（马骑兵）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可轰炸城防
+对单位有最大伤害限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先攻击攻城单位
+直升机：攻击坦克100加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可进行先发打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对直升机50加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马骑兵：无视远程单位的先发打击
+优先攻击攻城单位
+坦克：可攻击多次
+无地形防御加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可获得更好的部落村庄奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击骑兵25加成
+反坦克：攻击坦克100加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -817,9 +1122,11 @@
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1011,6 +1318,9 @@
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1018,7 +1328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -1123,7 +1433,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -1332,7 +1642,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -1343,7 +1653,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -1363,7 +1673,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -1377,7 +1687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -1401,7 +1711,7 @@
       </c>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -1418,6 +1728,541 @@
         <v>90</v>
       </c>
     </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="G41" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="I48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
